--- a/ky/downloads/data-excel/9.2.1.xlsx
+++ b/ky/downloads/data-excel/9.2.1.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">9.2.1 Доля ВДС продукции обрабатывающей промышленности в ВВП и в пересчете на душу населения </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Доля ВДС продукции обрабатывающей промышленности в ВВП, в процентах</t>
   </si>
@@ -43,9 +40,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>9.2.1 GVA share of manufacturing output in GDP and per capita</t>
-  </si>
-  <si>
     <t xml:space="preserve">ИДПга карата өнөр - жай өндүрүшүндөгү кошумча дүң наркынын үлүшү, пайыз менен </t>
   </si>
   <si>
@@ -53,6 +47,78 @@
   </si>
   <si>
     <t xml:space="preserve">9.2.1 ИДПнын калктын адам башына саналган өнөр - жай өндүрүшүндөгү кошумча дүң  наркынын үлүшү </t>
+  </si>
+  <si>
+    <t>9.2.1 Добавленная стоимость, создаваемая в обрабатывающей промышленности, в процентном отношении к ВВП и на душу населения</t>
+  </si>
+  <si>
+    <t>9.2.1 Manufacturing value added as a proportion of GDP and per capita</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2019-жылдан баштап маалыматтар, 2008 жылдагы Улуттук Эсептер Тутумунун эл аралык стандарттарына ылайык эсептелген </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Данные с 2019 года рассчитаны по международному стандарту Системы Национальных Счетов 2008 года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Data from 2019 are calculated according to the international standard of the System of National Accounts 2008</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -62,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,21 +173,34 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
@@ -189,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,12 +284,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -226,26 +299,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,239 +627,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="19" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2007</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2008</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2009</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2010</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2011</v>
+      </c>
+      <c r="I3" s="11">
+        <v>2012</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2013</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2014</v>
+      </c>
+      <c r="L3" s="11">
+        <v>2015</v>
+      </c>
+      <c r="M3" s="11">
+        <v>2016</v>
+      </c>
+      <c r="N3" s="11">
+        <v>2017</v>
+      </c>
+      <c r="O3" s="11">
+        <v>2018</v>
+      </c>
+      <c r="P3" s="11">
+        <v>2019</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>2020</v>
+      </c>
+      <c r="R3" s="11">
+        <v>2021</v>
+      </c>
+      <c r="S3" s="11">
+        <v>2022</v>
+      </c>
+      <c r="T3" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12">
+        <v>9.9</v>
+      </c>
+      <c r="E4" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>14.2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H4" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="I4" s="13">
+        <v>12.1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="K4" s="13">
+        <v>13.7</v>
+      </c>
+      <c r="L4" s="13">
+        <v>14</v>
+      </c>
+      <c r="M4" s="13">
+        <v>15.4</v>
+      </c>
+      <c r="N4" s="13">
+        <v>15</v>
+      </c>
+      <c r="O4" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="P4" s="13">
+        <v>13.7</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>13.1</v>
+      </c>
+      <c r="R4" s="16">
+        <v>11.8</v>
+      </c>
+      <c r="S4" s="16">
+        <v>13.6</v>
+      </c>
+      <c r="T4" s="16">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F5" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="G5" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="H5" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="I5" s="14">
+        <v>7</v>
+      </c>
+      <c r="J5" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="K5" s="14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L5" s="14">
+        <v>10.6</v>
+      </c>
+      <c r="M5" s="14">
+        <v>12.6</v>
+      </c>
+      <c r="N5" s="14">
+        <v>13.4</v>
+      </c>
+      <c r="O5" s="14">
+        <v>13.4</v>
+      </c>
+      <c r="P5" s="14">
+        <v>13.6</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="R5" s="14">
+        <v>13.5</v>
+      </c>
+      <c r="S5" s="14">
+        <v>20</v>
+      </c>
+      <c r="T5" s="14">
+        <v>23.6</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="12">
-        <v>2007</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2008</v>
-      </c>
-      <c r="F3" s="12">
-        <v>2009</v>
-      </c>
-      <c r="G3" s="13">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="13">
-        <v>2011</v>
-      </c>
-      <c r="I3" s="13">
-        <v>2012</v>
-      </c>
-      <c r="J3" s="13">
-        <v>2013</v>
-      </c>
-      <c r="K3" s="13">
-        <v>2014</v>
-      </c>
-      <c r="L3" s="13">
-        <v>2015</v>
-      </c>
-      <c r="M3" s="13">
-        <v>2016</v>
-      </c>
-      <c r="N3" s="13">
-        <v>2017</v>
-      </c>
-      <c r="O3" s="13">
-        <v>2018</v>
-      </c>
-      <c r="P3" s="13">
-        <v>2019</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>2020</v>
-      </c>
-      <c r="R3" s="13">
-        <v>2021</v>
-      </c>
-      <c r="S3" s="13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="14">
-        <v>9.9</v>
-      </c>
-      <c r="E4" s="14">
-        <v>13.2</v>
-      </c>
-      <c r="F4" s="14">
-        <v>14.2</v>
-      </c>
-      <c r="G4" s="15">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H4" s="15">
-        <v>18.3</v>
-      </c>
-      <c r="I4" s="15">
-        <v>12.1</v>
-      </c>
-      <c r="J4" s="15">
-        <v>15.8</v>
-      </c>
-      <c r="K4" s="15">
-        <v>13.7</v>
-      </c>
-      <c r="L4" s="15">
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="15">
-        <v>15.4</v>
-      </c>
-      <c r="N4" s="15">
+      <c r="C6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="15">
-        <v>14.3</v>
-      </c>
-      <c r="P4" s="15">
-        <v>13.7</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>13.1</v>
-      </c>
-      <c r="R4" s="19">
-        <v>11.8</v>
-      </c>
-      <c r="S4" s="19">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2.8</v>
-      </c>
-      <c r="E5" s="16">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F5" s="16">
-        <v>5.6</v>
-      </c>
-      <c r="G5" s="16">
-        <v>7.2</v>
-      </c>
-      <c r="H5" s="16">
-        <v>9.9</v>
-      </c>
-      <c r="I5" s="16">
-        <v>7</v>
-      </c>
-      <c r="J5" s="16">
-        <v>10.3</v>
-      </c>
-      <c r="K5" s="16">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L5" s="16">
-        <v>10.6</v>
-      </c>
-      <c r="M5" s="16">
-        <v>12.6</v>
-      </c>
-      <c r="N5" s="16">
-        <v>13.4</v>
-      </c>
-      <c r="O5" s="16">
-        <v>13.4</v>
-      </c>
-      <c r="P5" s="16">
-        <v>13.6</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>12.5</v>
-      </c>
-      <c r="R5" s="16">
-        <v>13.5</v>
-      </c>
-      <c r="S5" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
